--- a/blog-finanzas/indicadores-financieros/roa-rendimiento-sobre-activos/data/data-example.xlsx
+++ b/blog-finanzas/indicadores-financieros/roa-rendimiento-sobre-activos/data/data-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PRIMERO-LOS-DATOS-BLOG\blogs-primero-los-datos\blog-finanzas\indicadores-financieros\roa-rendimiento-sobre-activos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA2D00C-19A0-40E7-AE98-1ED1052BFA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754F153E-5727-4E4B-A3AA-198F1CA30D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,12 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,9 +380,10 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -392,7 +397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
@@ -403,10 +408,11 @@
         <v>25192</v>
       </c>
       <c r="D2">
-        <v>755.76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>876.68159999999989</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
@@ -417,10 +423,11 @@
         <v>32858</v>
       </c>
       <c r="D3">
-        <v>985.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1153.3158000000001</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
@@ -431,10 +438,11 @@
         <v>35382</v>
       </c>
       <c r="D4">
-        <v>1061.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1309.134</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2023</v>
       </c>
@@ -445,10 +453,11 @@
         <v>33435</v>
       </c>
       <c r="D5">
-        <v>1003.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1019.7674999999999</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2024</v>
       </c>
@@ -459,10 +468,11 @@
         <v>26806</v>
       </c>
       <c r="D6">
-        <v>804.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>927.48759999999993</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
@@ -473,10 +483,11 @@
         <v>4363</v>
       </c>
       <c r="D7">
-        <v>218.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249.56360000000001</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
@@ -487,10 +498,11 @@
         <v>3480</v>
       </c>
       <c r="D8">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207.756</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2022</v>
       </c>
@@ -501,10 +513,11 @@
         <v>2174</v>
       </c>
       <c r="D9">
-        <v>108.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115.43940000000001</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2023</v>
       </c>
@@ -515,10 +528,11 @@
         <v>2053</v>
       </c>
       <c r="D10">
-        <v>102.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105.52420000000001</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2024</v>
       </c>
@@ -529,8 +543,9 @@
         <v>3083</v>
       </c>
       <c r="D11">
-        <v>154.15</v>
-      </c>
+        <v>155.07489999999999</v>
+      </c>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
